--- a/public/template-excel/keuanganhaji/pengelolaan/sbn_sdhi_rupiah.xlsx
+++ b/public/template-excel/keuanganhaji/pengelolaan/sbn_sdhi_rupiah.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\DESAIN WEB\BPKH\27-1-20\sampel data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBDIR\htdocs\sibpkh\public\template-excel\keuanganhaji\pengelolaan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16388DB-F127-4BCF-B097-2BEA5299BBF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8B8D3E-3FF8-4973-8D9E-7907C160DDB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>TOTAL</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Maturity</t>
   </si>
   <si>
-    <t>21 Maret 2022</t>
-  </si>
-  <si>
     <t>SDHI 2022 A - DAU</t>
   </si>
   <si>
@@ -91,20 +88,31 @@
     <t>SDHI 2029 B</t>
   </si>
   <si>
-    <t>Desember</t>
+    <t>Counterpart</t>
+  </si>
+  <si>
+    <t>Agustus
+(Nominal Rp Miliar)</t>
+  </si>
+  <si>
+    <t>DJPPR</t>
+  </si>
+  <si>
+    <t>Agustus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +162,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -176,12 +191,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -204,6 +219,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -219,22 +243,38 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma" xfId="11" builtinId="3"/>
@@ -584,206 +624,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
+        <v>44641</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="10">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3">
-        <v>300000000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="5">
+        <v>47202</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>300000000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B4" s="5">
+        <v>43833</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>300000000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="5">
+        <v>43911</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3">
-        <v>300000000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="5">
+        <v>43948</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>300000000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="B7" s="5">
+        <v>44010</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3">
-        <v>300000000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="5">
+        <v>44011</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3">
-        <v>300000000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="B9" s="5">
+        <v>44297</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3">
-        <v>300000000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="5">
+        <v>44486</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3">
-        <v>300000000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="5">
+        <v>44603</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3">
-        <v>300000000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="B12" s="5">
+        <v>44641</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3">
-        <v>300000000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="B13" s="5">
+        <v>45234</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3">
-        <v>300000000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="B14" s="5">
+        <v>45333</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3">
-        <v>300000000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="B15" s="5">
+        <v>45846</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3">
-        <v>300000000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="3">
-        <v>300000000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="B16" s="5">
+        <v>47343</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="5">
-        <v>4500000000000</v>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="11">
+        <f>SUM(D2:D16)</f>
+        <v>28197</v>
       </c>
     </row>
   </sheetData>

--- a/public/template-excel/keuanganhaji/pengelolaan/sbn_sdhi_rupiah.xlsx
+++ b/public/template-excel/keuanganhaji/pengelolaan/sbn_sdhi_rupiah.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBDIR\htdocs\sibpkh\public\template-excel\keuanganhaji\pengelolaan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8B8D3E-3FF8-4973-8D9E-7907C160DDB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D657DC29-47A0-453E-9BE1-C30408C64C4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,14 +91,13 @@
     <t>Counterpart</t>
   </si>
   <si>
-    <t>Agustus
-(Nominal Rp Miliar)</t>
-  </si>
-  <si>
     <t>DJPPR</t>
   </si>
   <si>
     <t>Agustus</t>
+  </si>
+  <si>
+    <t>Nominal</t>
   </si>
 </sst>
 </file>
@@ -627,7 +626,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +638,7 @@
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -650,10 +649,10 @@
         <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="9">
         <v>2019</v>
@@ -667,7 +666,7 @@
         <v>44641</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="10">
         <v>447</v>
@@ -681,7 +680,7 @@
         <v>47202</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="10">
         <v>1000</v>
@@ -695,7 +694,7 @@
         <v>43833</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="10">
         <v>3000</v>
@@ -709,7 +708,7 @@
         <v>43911</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="10">
         <v>2000</v>
@@ -723,7 +722,7 @@
         <v>43948</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="10">
         <v>1500</v>
@@ -737,7 +736,7 @@
         <v>44010</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="10">
         <v>1000</v>
@@ -751,7 +750,7 @@
         <v>44011</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="10">
         <v>1000</v>
@@ -765,7 +764,7 @@
         <v>44297</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="10">
         <v>2000</v>
@@ -779,7 +778,7 @@
         <v>44486</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="10">
         <v>3000</v>
@@ -793,7 +792,7 @@
         <v>44603</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="10">
         <v>2000</v>
@@ -807,7 +806,7 @@
         <v>44641</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="10">
         <v>2895</v>
@@ -821,7 +820,7 @@
         <v>45234</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="10">
         <v>1500</v>
@@ -835,7 +834,7 @@
         <v>45333</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="10">
         <v>2000</v>
@@ -849,7 +848,7 @@
         <v>45846</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="10">
         <v>2000</v>
@@ -863,7 +862,7 @@
         <v>47343</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="10">
         <v>2855</v>
